--- a/Bugs/ReporteBugs.xlsx
+++ b/Bugs/ReporteBugs.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/Bugs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19CED04-35CD-4CE5-A9A2-82C7C2D49599}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,46 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+  <si>
+    <t>Tipo de error</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Falla</t>
+  </si>
+  <si>
+    <t>Defecto</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PASA</t>
+  </si>
+  <si>
+    <t>NO PASA</t>
+  </si>
+  <si>
+    <t>Severidad</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -37,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +89,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +126,2704 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>Bugs</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> por tipo de error</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$2:$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Falla</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Defecto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7F90-40FD-913D-F4E39071DDFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="530323016"/>
+        <c:axId val="618240312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="530323016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618240312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618240312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="530323016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Estado de los TestCase</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="brightRoom" dir="t"/>
+              </a:scene3d>
+              <a:sp3d prstMaterial="flat">
+                <a:bevelT w="50800" h="101600" prst="angle"/>
+                <a:contourClr>
+                  <a:srgbClr val="000000"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$L$2:$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>PASA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>NO PASA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30E5-466C-9B09-A6D9B59ED9D3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Severidad</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cantidad</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$T$2:$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Alta</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Media</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Baja</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6611-4580-A0E6-179639F4257D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="617407280"/>
+        <c:axId val="138345000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="617407280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="138345000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="138345000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="617407280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="brightRoom" dir="t"/>
+      </a:scene3d>
+      <a:sp3d prstMaterial="flat">
+        <a:bevelT w="50800" h="101600" prst="angle"/>
+        <a:contourClr>
+          <a:srgbClr val="000000"/>
+        </a:contourClr>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69CFA8D7-A3DA-0EFD-17F1-29FA59E3CA45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5546F93-6209-3232-0DD1-C95A54C842BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535F1EC7-A70F-7BE2-95E2-57410C7AE32C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +3088,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="T4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bugs/ReporteBugs.xlsx
+++ b/Bugs/ReporteBugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cacb292a451908e7/Desktop/ProyectoFinalQA/Bugs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F19CED04-35CD-4CE5-A9A2-82C7C2D49599}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10486F019D5CE45BDE58E6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD9A23F-3F7F-4BEA-A115-41D768442DDE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -550,6 +550,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7289-4DC0-ACA2-C4975B57BE8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -573,6 +578,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7289-4DC0-ACA2-C4975B57BE8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -648,7 +658,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -3092,7 +3102,7 @@
   <dimension ref="C1:U4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,7 +3142,7 @@
         <v>5</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>8</v>
